--- a/z-scores.xlsx
+++ b/z-scores.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\udacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D29C50-5602-436F-8D86-B88A9DEBC302}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB6760-D57E-4EAD-AA23-D4BFCBF2025F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{F3F8F13A-D0DB-4330-8FD8-7565DE5F57C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Z_Scores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Z</t>
   </si>
@@ -38,8 +38,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -58,12 +58,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -120,21 +132,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,2827 +465,2828 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248C712-23C3-44DB-AED2-76F774C9FADD}">
+  <sheetPr codeName="Z_Scores"/>
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M71" sqref="M71"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>0.01</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>0.02</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="1">
         <v>0.03</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>0.04</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>0.05</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0.06</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>0.08</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>-3.9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>-3.8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>-3.7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>1.1E-4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="7">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="7">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>-3.6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>1.2E-4</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="7">
         <v>1.2E-4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="7">
         <v>1.1E-4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>-3.5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="9">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="9">
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>-3.4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>3.1E-4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>2.9E-4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
         <v>2.7E-4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="7">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="7">
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>-3.3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="7">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="7">
         <v>3.5E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>-3.2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>6.6E-4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>6.2E-4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>5.8E-4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <v>5.5999999999999995E-4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="7">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>-3.1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>9.7000000000000005E-4</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="7">
         <v>7.9000000000000001E-4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="7">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <v>7.1000000000000002E-4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="8">
         <v>-3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="9">
         <v>1.31E-3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="9">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="9">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <v>1.14E-3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="9">
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="9">
         <v>1.07E-3</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="9">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="9">
         <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>-2.9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>1.81E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>1.75E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>1.6900000000000001E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>1.64E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="7">
         <v>1.49E-3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="7">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="7">
         <v>1.39E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>-2.8</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>2.48E-3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>2.33E-3</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>2.2599999999999999E-3</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <v>2.1900000000000001E-3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <v>2.1199999999999999E-3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="7">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <v>1.99E-3</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="7">
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>-2.7</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>3.47E-3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>3.3600000000000001E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>3.2599999999999999E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>2.98E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="7">
         <v>2.8E-3</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="7">
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="7">
         <v>2.64E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>-2.6</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>4.6600000000000001E-3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>4.5300000000000002E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <v>4.2700000000000004E-3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>4.15E-3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>4.0200000000000001E-3</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>3.9100000000000003E-3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="7">
         <v>3.79E-3</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="7">
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="7">
         <v>3.5699999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="8">
         <v>-2.5</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
         <v>6.2100000000000002E-3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <v>6.0400000000000002E-3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="9">
         <v>5.8700000000000002E-3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="9">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="9">
         <v>5.5399999999999998E-3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="9">
         <v>5.3899999999999998E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="9">
         <v>5.2300000000000003E-3</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="9">
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="9">
         <v>4.9399999999999999E-3</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="9">
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>-2.4</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>7.9799999999999992E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>7.7600000000000004E-3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>7.5500000000000003E-3</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>7.3400000000000002E-3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>7.1399999999999996E-3</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="7">
         <v>6.7600000000000004E-3</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="7">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="7">
         <v>6.3899999999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="6">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>1.072E-2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>1.044E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <v>1.017E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>9.6399999999999993E-3</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
         <v>9.1400000000000006E-3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="7">
         <v>8.8900000000000003E-3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="7">
         <v>8.6599999999999993E-3</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="7">
         <v>8.4200000000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>1.355E-2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>1.321E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="7">
         <v>1.2869999999999999E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>1.255E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="7">
         <v>1.222E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <v>1.191E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="7">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="7">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="7">
         <v>1.1010000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <v>-2.1</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>1.7860000000000001E-2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>1.7430000000000001E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="7">
         <v>1.6590000000000001E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="7">
         <v>1.618E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="7">
         <v>1.5779999999999999E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="7">
         <v>1.5389999999999999E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="7">
         <v>1.4630000000000001E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="7">
         <v>1.426E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="8">
         <v>-2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>2.2749999999999999E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="9">
         <v>2.222E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="9">
         <v>2.1690000000000001E-2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="9">
         <v>2.1180000000000001E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="9">
         <v>2.068E-2</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="9">
         <v>2.018E-2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="9">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="9">
         <v>1.9230000000000001E-2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="9">
         <v>1.8759999999999999E-2</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="9">
         <v>1.831E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="6">
         <v>-1.9</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>2.8719999999999999E-2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>2.8070000000000001E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="7">
         <v>2.743E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="7">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="7">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="7">
         <v>2.5590000000000002E-2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="7">
         <v>2.4420000000000001E-2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="7">
         <v>2.385E-2</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="7">
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <v>-1.8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="7">
         <v>3.5929999999999997E-2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>3.5150000000000001E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <v>3.4380000000000001E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <v>3.3619999999999997E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <v>3.288E-2</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <v>3.2160000000000001E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <v>3.1440000000000003E-2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <v>3.074E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7">
         <v>3.005E-2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="7">
         <v>2.938E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="6">
         <v>-1.7</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>4.4569999999999999E-2</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>4.3630000000000002E-2</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <v>4.2720000000000001E-2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="7">
         <v>4.1820000000000003E-2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="7">
         <v>4.0930000000000001E-2</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="7">
         <v>4.0059999999999998E-2</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="7">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="7">
         <v>3.8359999999999998E-2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="7">
         <v>3.7539999999999997E-2</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="7">
         <v>3.6729999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="6">
         <v>-1.6</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>5.262E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>5.1549999999999999E-2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="7">
         <v>4.947E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="7">
         <v>4.8460000000000003E-2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="7">
         <v>4.7460000000000002E-2</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="7">
         <v>4.648E-2</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="7">
         <v>4.5510000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="8">
         <v>-1.5</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="9">
         <v>6.6809999999999994E-2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="9">
         <v>6.5519999999999995E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="9">
         <v>6.4259999999999998E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="9">
         <v>6.3009999999999997E-2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="9">
         <v>6.1780000000000002E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="9">
         <v>6.0569999999999999E-2</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="9">
         <v>5.9380000000000002E-2</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="9">
         <v>5.8209999999999998E-2</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="9">
         <v>5.7049999999999997E-2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="9">
         <v>5.5919999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <v>-1.4</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="7">
         <v>8.0759999999999998E-2</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <v>7.9269999999999993E-2</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="7">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="7">
         <v>7.6359999999999997E-2</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="7">
         <v>7.4929999999999997E-2</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="7">
         <v>7.3529999999999998E-2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="7">
         <v>7.2150000000000006E-2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="7">
         <v>7.0779999999999996E-2</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="7">
         <v>6.9440000000000002E-2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="7">
         <v>6.8110000000000004E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="6">
         <v>-1.3</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <v>9.3420000000000003E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <v>9.1759999999999994E-2</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="7">
         <v>9.0120000000000006E-2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="7">
         <v>8.8510000000000005E-2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="7">
         <v>8.6910000000000001E-2</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="7">
         <v>8.5339999999999999E-2</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="7">
         <v>8.3790000000000003E-2</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="7">
         <v>8.226E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="6">
         <v>-1.2</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>0.11507000000000001</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>0.11314</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="7">
         <v>0.11123</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="7">
         <v>0.10935</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="7">
         <v>0.10749</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="7">
         <v>0.10564999999999999</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="7">
         <v>0.10383000000000001</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="7">
         <v>0.10204000000000001</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="7">
         <v>0.10027</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="7">
         <v>9.8530000000000006E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="6">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>0.13567000000000001</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>0.13350000000000001</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="7">
         <v>0.13136</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="7">
         <v>0.12923999999999999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="7">
         <v>0.12714</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="7">
         <v>0.12506999999999999</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="7">
         <v>0.12302</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="7">
         <v>0.121</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="7">
         <v>0.11899999999999999</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="7">
         <v>0.11702</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="8">
         <v>-1</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="9">
         <v>0.15866</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="9">
         <v>0.15625</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="9">
         <v>0.15386</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="9">
         <v>0.15151000000000001</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="9">
         <v>0.14917</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="9">
         <v>0.14685999999999999</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="9">
         <v>0.14457</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="9">
         <v>0.14230999999999999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="9">
         <v>0.14007</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="9">
         <v>0.13786000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="6">
         <v>-0.9</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="7">
         <v>0.18406</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <v>0.18140999999999999</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="7">
         <v>0.17879</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="7">
         <v>0.17619000000000001</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="7">
         <v>0.17360999999999999</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="7">
         <v>0.17105999999999999</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="7">
         <v>0.16853000000000001</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="7">
         <v>0.16602</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="7">
         <v>0.16353999999999999</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="7">
         <v>0.16109000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="6">
         <v>-0.8</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="7">
         <v>0.21185999999999999</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <v>0.20896999999999999</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="7">
         <v>0.20610999999999999</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="7">
         <v>0.20327000000000001</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="7">
         <v>0.20044999999999999</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="7">
         <v>0.19766</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="7">
         <v>0.19489000000000001</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="7">
         <v>0.19214999999999999</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="7">
         <v>0.18942999999999999</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="7">
         <v>0.18673000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="6">
         <v>-0.7</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="7">
         <v>0.24196000000000001</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <v>0.23885000000000001</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="7">
         <v>0.23576</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="7">
         <v>0.23269999999999999</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="7">
         <v>0.22964999999999999</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="7">
         <v>0.22663</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="7">
         <v>0.22363</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="7">
         <v>0.22065000000000001</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="7">
         <v>0.2177</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="7">
         <v>0.21476000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <v>-0.6</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="7">
         <v>0.27424999999999999</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="7">
         <v>0.27093</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="7">
         <v>0.26762999999999998</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="7">
         <v>0.26434999999999997</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="7">
         <v>0.26108999999999999</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="7">
         <v>0.25785000000000002</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="7">
         <v>0.25463000000000002</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="7">
         <v>0.25142999999999999</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="7">
         <v>0.24825</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="7">
         <v>0.24510000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="8">
         <v>-0.5</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="9">
         <v>0.30853999999999998</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="9">
         <v>0.30503000000000002</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="9">
         <v>0.30153000000000002</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="9">
         <v>0.29805999999999999</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="9">
         <v>0.29459999999999997</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="9">
         <v>0.29115999999999997</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="9">
         <v>0.28774</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="9">
         <v>0.28433999999999998</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="9">
         <v>0.28095999999999999</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="9">
         <v>0.27760000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <v>-0.4</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="7">
         <v>0.34458</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <v>0.34089999999999998</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="7">
         <v>0.33723999999999998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="7">
         <v>0.33360000000000001</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="7">
         <v>0.32996999999999999</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="7">
         <v>0.32635999999999998</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="7">
         <v>0.32275999999999999</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="7">
         <v>0.31918000000000002</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="7">
         <v>0.31561</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="7">
         <v>0.31207000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="6">
         <v>-0.3</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="7">
         <v>0.38208999999999999</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>0.37828000000000001</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="7">
         <v>0.37447999999999998</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="7">
         <v>0.37069999999999997</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="7">
         <v>0.36692999999999998</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="7">
         <v>0.36316999999999999</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="7">
         <v>0.35942000000000002</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="7">
         <v>0.35569000000000001</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="7">
         <v>0.35197000000000001</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="7">
         <v>0.34827000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="6">
         <v>-0.2</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="7">
         <v>0.42074</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="7">
         <v>0.41682999999999998</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="7">
         <v>0.41293999999999997</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="7">
         <v>0.40905000000000002</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="7">
         <v>0.40516999999999997</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="7">
         <v>0.40128999999999998</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="7">
         <v>0.39743000000000001</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="7">
         <v>0.39357999999999999</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="7">
         <v>0.38973999999999998</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="7">
         <v>0.38590999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="6">
         <v>-0.1</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="7">
         <v>0.46017000000000002</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="7">
         <v>0.45619999999999999</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="7">
         <v>0.45223999999999998</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="7">
         <v>0.44828000000000001</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="7">
         <v>0.44433</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="7">
         <v>0.44037999999999999</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="7">
         <v>0.43643999999999999</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="7">
         <v>0.43251000000000001</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="7">
         <v>0.42858000000000002</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="7">
         <v>0.42465000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="8">
         <v>0</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="9">
         <v>0.5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="9">
         <v>0.49601000000000001</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="9">
         <v>0.49202000000000001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="9">
         <v>0.48803000000000002</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="9">
         <v>0.48404999999999998</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="9">
         <v>0.48005999999999999</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="9">
         <v>0.47608</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="9">
         <v>0.47210000000000002</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="9">
         <v>0.46811999999999998</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="9">
         <v>0.46414</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="6">
         <v>0.1</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="7">
         <v>0.53983000000000003</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="7">
         <v>0.54379999999999995</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="7">
         <v>0.54776000000000002</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="7">
         <v>0.55171999999999999</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="7">
         <v>0.55567</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="7">
         <v>0.55962000000000001</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="7">
         <v>0.56355999999999995</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="7">
         <v>0.56749000000000005</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="7">
         <v>0.57142000000000004</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="7">
         <v>0.57535000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="6">
         <v>0.2</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="7">
         <v>0.57926</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="7">
         <v>0.58316999999999997</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="7">
         <v>0.58706000000000003</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="7">
         <v>0.59094999999999998</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="7">
         <v>0.59482999999999997</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="7">
         <v>0.59870999999999996</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="7">
         <v>0.60257000000000005</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="7">
         <v>0.60641999999999996</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="7">
         <v>0.61026000000000002</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="7">
         <v>0.61409000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="6">
         <v>0.3</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="7">
         <v>0.61790999999999996</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>0.62172000000000005</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="7">
         <v>0.62551999999999996</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="7">
         <v>0.62929999999999997</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="7">
         <v>0.63307000000000002</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="7">
         <v>0.63683000000000001</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="7">
         <v>0.64058000000000004</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="7">
         <v>0.64431000000000005</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="7">
         <v>0.64802999999999999</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="7">
         <v>0.65173000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="6">
         <v>0.4</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="7">
         <v>0.65542</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="7">
         <v>0.65910000000000002</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="7">
         <v>0.66276000000000002</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="7">
         <v>0.66639999999999999</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="7">
         <v>0.67003000000000001</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="7">
         <v>0.67364000000000002</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="7">
         <v>0.67723999999999995</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="7">
         <v>0.68081999999999998</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="7">
         <v>0.68439000000000005</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="7">
         <v>0.68793000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="8">
         <v>0.5</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="9">
         <v>0.69145999999999996</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="9">
         <v>0.69496999999999998</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="9">
         <v>0.69847000000000004</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="9">
         <v>0.70194000000000001</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="9">
         <v>0.70540000000000003</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="9">
         <v>0.70884000000000003</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="9">
         <v>0.71226</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="9">
         <v>0.71565999999999996</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="9">
         <v>0.71904000000000001</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="9">
         <v>0.72240000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="6">
         <v>0.6</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="7">
         <v>0.72575000000000001</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="7">
         <v>0.72907</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="7">
         <v>0.73236999999999997</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="7">
         <v>0.73565000000000003</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="7">
         <v>0.73890999999999996</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="7">
         <v>0.74214999999999998</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="7">
         <v>0.74536999999999998</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="7">
         <v>0.74856999999999996</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="7">
         <v>0.75175000000000003</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="7">
         <v>0.75490000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="6">
         <v>0.7</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="7">
         <v>0.75804000000000005</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="7">
         <v>0.76114999999999999</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="7">
         <v>0.76424000000000003</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="7">
         <v>0.76729999999999998</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="7">
         <v>0.77034999999999998</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="7">
         <v>0.77337</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="7">
         <v>0.77637</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="7">
         <v>0.77934999999999999</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="7">
         <v>0.7823</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="7">
         <v>0.78524000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="6">
         <v>0.8</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="7">
         <v>0.78813999999999995</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="7">
         <v>0.79103000000000001</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="7">
         <v>0.79388999999999998</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="7">
         <v>0.79673000000000005</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="7">
         <v>0.79954999999999998</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="7">
         <v>0.80234000000000005</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="7">
         <v>0.80510999999999999</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="7">
         <v>0.80784999999999996</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="7">
         <v>0.81057000000000001</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="7">
         <v>0.81327000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="6">
         <v>0.9</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="7">
         <v>0.81594</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="7">
         <v>0.81859000000000004</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="7">
         <v>0.82121</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="7">
         <v>0.82381000000000004</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="7">
         <v>0.82638999999999996</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="7">
         <v>0.82894000000000001</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="7">
         <v>0.83147000000000004</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="7">
         <v>0.83398000000000005</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="7">
         <v>0.83645999999999998</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="7">
         <v>0.83891000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="8">
         <v>1</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="9">
         <v>0.84133999999999998</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="9">
         <v>0.84375</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="9">
         <v>0.84614</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="9">
         <v>0.84848999999999997</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="9">
         <v>0.85082999999999998</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="9">
         <v>0.85314000000000001</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="9">
         <v>0.85543000000000002</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="9">
         <v>0.85768999999999995</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="9">
         <v>0.85992999999999997</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="9">
         <v>0.86214000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="7">
         <v>0.86433000000000004</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="7">
         <v>0.86650000000000005</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="7">
         <v>0.86863999999999997</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="7">
         <v>0.87075999999999998</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="7">
         <v>0.87285999999999997</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="7">
         <v>0.87492999999999999</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="7">
         <v>0.87697999999999998</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="7">
         <v>0.879</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="7">
         <v>0.88100000000000001</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="7">
         <v>0.88297999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="6">
         <v>1.2</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="7">
         <v>0.88492999999999999</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="7">
         <v>0.88685999999999998</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="7">
         <v>0.88876999999999995</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="7">
         <v>0.89065000000000005</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="7">
         <v>0.89251000000000003</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="7">
         <v>0.89434999999999998</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="7">
         <v>0.89617000000000002</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="7">
         <v>0.89795999999999998</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="7">
         <v>0.89973000000000003</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="7">
         <v>0.90146999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="6">
         <v>1.3</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="7">
         <v>0.9032</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="7">
         <v>0.90490000000000004</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="7">
         <v>0.90658000000000005</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="7">
         <v>0.90824000000000005</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="7">
         <v>0.90988000000000002</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="7">
         <v>0.91149000000000002</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="7">
         <v>0.91308999999999996</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="7">
         <v>0.91466000000000003</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="7">
         <v>0.91620999999999997</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="7">
         <v>0.91774</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="6">
         <v>1.4</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="7">
         <v>0.91923999999999995</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="7">
         <v>0.92073000000000005</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="7">
         <v>0.92220000000000002</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="7">
         <v>0.92364000000000002</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="7">
         <v>0.92506999999999995</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="7">
         <v>0.92647000000000002</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="7">
         <v>0.92784999999999995</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="7">
         <v>0.92922000000000005</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="7">
         <v>0.93056000000000005</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="7">
         <v>0.93189</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="8">
         <v>1.5</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="9">
         <v>0.93318999999999996</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="9">
         <v>0.93447999999999998</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="9">
         <v>0.93574000000000002</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="9">
         <v>0.93698999999999999</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="9">
         <v>0.93822000000000005</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="9">
         <v>0.93942999999999999</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="9">
         <v>0.94062000000000001</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="9">
         <v>0.94179000000000002</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="9">
         <v>0.94294999999999995</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="9">
         <v>0.94408000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="6">
         <v>1.6</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="7">
         <v>0.94520000000000004</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="7">
         <v>0.94630000000000003</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="7">
         <v>0.94738</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="7">
         <v>0.94845000000000002</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="7">
         <v>0.94950000000000001</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="7">
         <v>0.95052999999999999</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="7">
         <v>0.95154000000000005</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="7">
         <v>0.95254000000000005</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="7">
         <v>0.95352000000000003</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="7">
         <v>0.95448999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="6">
         <v>1.7</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="7">
         <v>0.95543</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="7">
         <v>0.95637000000000005</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="7">
         <v>0.95728000000000002</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="7">
         <v>0.95818000000000003</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="7">
         <v>0.95906999999999998</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="7">
         <v>0.95994000000000002</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="7">
         <v>0.96079999999999999</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="7">
         <v>0.96164000000000005</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="7">
         <v>0.96245999999999998</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="7">
         <v>0.96326999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="6">
         <v>1.8</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="7">
         <v>0.96406999999999998</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="7">
         <v>0.96484999999999999</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="7">
         <v>0.96562000000000003</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="7">
         <v>0.96638000000000002</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="7">
         <v>0.96711999999999998</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="7">
         <v>0.96784000000000003</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="7">
         <v>0.96855999999999998</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="7">
         <v>0.96926000000000001</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="7">
         <v>0.96994999999999998</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="7">
         <v>0.97062000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="6">
         <v>1.9</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="7">
         <v>0.97128000000000003</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="7">
         <v>0.97192999999999996</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="7">
         <v>0.97257000000000005</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="7">
         <v>0.97319999999999995</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="7">
         <v>0.97380999999999995</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="7">
         <v>0.97441</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="7">
         <v>0.97558</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="7">
         <v>0.97614999999999996</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="7">
         <v>0.97670000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="8">
         <v>2</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="9">
         <v>0.97724999999999995</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="9">
         <v>0.97777999999999998</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="9">
         <v>0.97831000000000001</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="9">
         <v>0.97882000000000002</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="9">
         <v>0.97931999999999997</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="9">
         <v>0.97982000000000002</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="9">
         <v>0.98029999999999995</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="9">
         <v>0.98077000000000003</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="9">
         <v>0.98124</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="9">
         <v>0.98168999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="6">
         <v>2.1</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="7">
         <v>0.98214000000000001</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="7">
         <v>0.98257000000000005</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="7">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="7">
         <v>0.98341000000000001</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="7">
         <v>0.98382000000000003</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="7">
         <v>0.98421999999999998</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="7">
         <v>0.98460999999999999</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="7">
         <v>0.98499999999999999</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="7">
         <v>0.98536999999999997</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="7">
         <v>0.98573999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="7">
         <v>0.98609999999999998</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="7">
         <v>0.98645000000000005</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="7">
         <v>0.98678999999999994</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="7">
         <v>0.98712999999999995</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="7">
         <v>0.98745000000000005</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="7">
         <v>0.98777999999999999</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="7">
         <v>0.98809000000000002</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="7">
         <v>0.98839999999999995</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="7">
         <v>0.98870000000000002</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="7">
         <v>0.98899000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="7">
         <v>0.98928000000000005</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="7">
         <v>0.98956</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="7">
         <v>0.98982999999999999</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="7">
         <v>0.99009999999999998</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="7">
         <v>0.99036000000000002</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="7">
         <v>0.99060999999999999</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="7">
         <v>0.99085999999999996</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="7">
         <v>0.99111000000000005</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="7">
         <v>0.99134</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="7">
         <v>0.99158000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="6">
         <v>2.4</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="7">
         <v>0.99180000000000001</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="7">
         <v>0.99202000000000001</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="7">
         <v>0.99224000000000001</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="7">
         <v>0.99245000000000005</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="7">
         <v>0.99265999999999999</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="7">
         <v>0.99285999999999996</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="7">
         <v>0.99304999999999999</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="7">
         <v>0.99324000000000001</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="7">
         <v>0.99343000000000004</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="7">
         <v>0.99360999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="8">
         <v>2.5</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="9">
         <v>0.99378999999999995</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="9">
         <v>0.99395999999999995</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="9">
         <v>0.99412999999999996</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="9">
         <v>0.99429999999999996</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="9">
         <v>0.99446000000000001</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="9">
         <v>0.99460999999999999</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="9">
         <v>0.99477000000000004</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="9">
         <v>0.99492000000000003</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="9">
         <v>0.99505999999999994</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="9">
         <v>0.99519999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="6">
         <v>2.6</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="7">
         <v>0.99534</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="7">
         <v>0.99546999999999997</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="7">
         <v>0.99560000000000004</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="7">
         <v>0.99573</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="7">
         <v>0.99585000000000001</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="7">
         <v>0.99597999999999998</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="7">
         <v>0.99609000000000003</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="7">
         <v>0.99621000000000004</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="7">
         <v>0.99631999999999998</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="7">
         <v>0.99643000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="6">
         <v>2.7</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="7">
         <v>0.99653000000000003</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="7">
         <v>0.99663999999999997</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="7">
         <v>0.99673999999999996</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="7">
         <v>0.99682999999999999</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="7">
         <v>0.99692999999999998</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="7">
         <v>0.99702000000000002</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="7">
         <v>0.99711000000000005</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="7">
         <v>0.99719999999999998</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="7">
         <v>0.99728000000000006</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="7">
         <v>0.99736000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="6">
         <v>2.8</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="7">
         <v>0.99743999999999999</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="7">
         <v>0.99751999999999996</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="7">
         <v>0.99760000000000004</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="7">
         <v>0.99766999999999995</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="7">
         <v>0.99773999999999996</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="7">
         <v>0.99780999999999997</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="7">
         <v>0.99787999999999999</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="7">
         <v>0.99795</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="7">
         <v>0.99800999999999995</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="7">
         <v>0.99807000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="6">
         <v>2.9</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="7">
         <v>0.99812999999999996</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="7">
         <v>0.99819000000000002</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="7">
         <v>0.99824999999999997</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="7">
         <v>0.99831000000000003</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="7">
         <v>0.99836000000000003</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="7">
         <v>0.99841000000000002</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="7">
         <v>0.99846000000000001</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="7">
         <v>0.99851000000000001</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="7">
         <v>0.99856</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="7">
         <v>0.99861</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="8">
         <v>3</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="9">
         <v>0.99865000000000004</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="9">
         <v>0.99868999999999997</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="9">
         <v>0.99873999999999996</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="9">
         <v>0.99878</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="9">
         <v>0.99882000000000004</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="9">
         <v>0.99885999999999997</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="9">
         <v>0.99888999999999994</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="9">
         <v>0.99892999999999998</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="9">
         <v>0.99895999999999996</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="9">
         <v>0.999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="6">
         <v>3.1</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="7">
         <v>0.99902999999999997</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="7">
         <v>0.99905999999999995</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="7">
         <v>0.99909999999999999</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="7">
         <v>0.99912999999999996</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="7">
         <v>0.99916000000000005</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="7">
         <v>0.99917999999999996</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="7">
         <v>0.99921000000000004</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="7">
         <v>0.99924000000000002</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="7">
         <v>0.99926000000000004</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="7">
         <v>0.99929000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="6">
         <v>3.2</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="7">
         <v>0.99931000000000003</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="7">
         <v>0.99934000000000001</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="7">
         <v>0.99936000000000003</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="7">
         <v>0.99938000000000005</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="7">
         <v>0.99939999999999996</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="7">
         <v>0.99941999999999998</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="7">
         <v>0.99944</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="7">
         <v>0.99946000000000002</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="7">
         <v>0.99948000000000004</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="7">
         <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="6">
         <v>3.3</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="7">
         <v>0.99951999999999996</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="7">
         <v>0.99953000000000003</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="7">
         <v>0.99955000000000005</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="7">
         <v>0.99956999999999996</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="7">
         <v>0.99958000000000002</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="7">
         <v>0.99960000000000004</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="7">
         <v>0.99961</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="7">
         <v>0.99961999999999995</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="7">
         <v>0.99963999999999997</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="7">
         <v>0.99965000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="6">
         <v>3.4</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="7">
         <v>0.99965999999999999</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="7">
         <v>0.99968000000000001</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="7">
         <v>0.99968999999999997</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="7">
         <v>0.99970000000000003</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="7">
         <v>0.99970999999999999</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="7">
         <v>0.99972000000000005</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="7">
         <v>0.99973000000000001</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="7">
         <v>0.99973999999999996</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="7">
         <v>0.99975000000000003</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="7">
         <v>0.99975999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="8">
         <v>3.5</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="9">
         <v>0.99977000000000005</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="9">
         <v>0.99978</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="9">
         <v>0.99978</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="9">
         <v>0.99978999999999996</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="9">
         <v>0.99980000000000002</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="9">
         <v>0.99980999999999998</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="9">
         <v>0.99980999999999998</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="9">
         <v>0.99982000000000004</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="9">
         <v>0.99983</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="9">
         <v>0.99983</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="6">
         <v>3.6</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="7">
         <v>0.99983999999999995</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="7">
         <v>0.99985000000000002</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="7">
         <v>0.99985000000000002</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="7">
         <v>0.99985999999999997</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="7">
         <v>0.99985999999999997</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="7">
         <v>0.99987000000000004</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="7">
         <v>0.99987000000000004</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="7">
         <v>0.99987999999999999</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="7">
         <v>0.99987999999999999</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="7">
         <v>0.99988999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="6">
         <v>3.7</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="7">
         <v>0.99988999999999995</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="7">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="7">
         <v>0.99990000000000001</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="7">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="7">
         <v>0.99990999999999997</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="7">
         <v>0.99990999999999997</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="7">
         <v>0.99992000000000003</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="7">
         <v>0.99992000000000003</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="7">
         <v>0.99992000000000003</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="7">
         <v>0.99992000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="6">
         <v>3.8</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="7">
         <v>0.99992999999999999</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="7">
         <v>0.99992999999999999</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="7">
         <v>0.99992999999999999</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="7">
         <v>0.99994000000000005</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="7">
         <v>0.99994000000000005</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="7">
         <v>0.99994000000000005</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="7">
         <v>0.99994000000000005</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="7">
         <v>0.99995000000000001</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="7">
         <v>0.99995000000000001</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="7">
         <v>0.99995000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="8">
         <v>3.9</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="9">
         <v>0.99995000000000001</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="9">
         <v>0.99995000000000001</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="9">
         <v>0.99995999999999996</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="9">
         <v>0.99995999999999996</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="9">
         <v>0.99995999999999996</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="9">
         <v>0.99995999999999996</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="9">
         <v>0.99995999999999996</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="9">
         <v>0.99995999999999996</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="9">
         <v>0.99997000000000003</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="9">
         <v>0.99997000000000003</v>
       </c>
     </row>
